--- a/authors.xlsx
+++ b/authors.xlsx
@@ -5,14 +5,14 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_ddd\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23265" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="7965" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="日置真治" sheetId="27" r:id="rId1"/>
+    <sheet name="日置慎治" sheetId="27" r:id="rId1"/>
     <sheet name="Template" sheetId="28" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -161,25 +161,26 @@
     <t>name</t>
   </si>
   <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>HIOKI, Shinji</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>大阪大学基礎工学研究科数理専攻博士後期課程修了。工学博士。 広島大学理学部助手等を経て、現在、帝塚山大学経営学部教授、学部長。ゴードン・ベル賞受賞（1995）</t>
+  </si>
+  <si>
+    <t>物理学 / 素粒子・原子核・宇宙線・宇宙物理 / 情報学 / 図書館情報学・人文社会情報学</t>
+  </si>
+  <si>
+    <t>シミュレーション(292) , 格子QCD(4) , 数値シミュレ-ション(94) , ハドロン(12) , 並列計算(50) , 有限温度質量(1) , 質量移行(1) , ハイパフォ-マンス(1) , ハイパフォ-マンスコンピュ-ティング(20) , ス-パ-コンピュ-タ(11) , 有限温度(2) , クオ-ク・グル-ホン・プラズマ(1) , 質量(6) , トポロジ-(44) , 格子色力学(QCD)(1) , モンテカルロシミュレ-ション(25) , 人口(29) , グルーオン(5) , インターネット(219) , 江戸時代(19)</t>
+  </si>
+  <si>
     <t>日置 慎治</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>HIOKI, Shinji</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>大阪大学基礎工学研究科数理専攻博士後期課程修了。工学博士。 広島大学理学部助手等を経て、現在、帝塚山大学経営学部教授、学部長。ゴードン・ベル賞受賞（1995）</t>
-  </si>
-  <si>
-    <t>物理学 / 素粒子・原子核・宇宙線・宇宙物理 / 情報学 / 図書館情報学・人文社会情報学</t>
-  </si>
-  <si>
-    <t>シミュレーション(292) , 格子QCD(4) , 数値シミュレ-ション(94) , ハドロン(12) , 並列計算(50) , 有限温度質量(1) , 質量移行(1) , ハイパフォ-マンス(1) , ハイパフォ-マンスコンピュ-ティング(20) , ス-パ-コンピュ-タ(11) , 有限温度(2) , クオ-ク・グル-ホン・プラズマ(1) , 質量(6) , トポロジ-(44) , 格子色力学(QCD)(1) , モンテカルロシミュレ-ション(25) , 人口(29) , グルーオン(5) , インターネット(219) , 江戸時代(19)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -814,7 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -843,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>12</v>
@@ -854,10 +857,10 @@
     </row>
     <row r="3" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
@@ -866,7 +869,7 @@
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -889,7 +892,7 @@
     <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -899,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -909,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
